--- a/테이블정리서.xlsx
+++ b/테이블정리서.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\02070811\mini02\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76B429AA-CDBB-4B96-84CA-94F951A39E94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD0E211F-4EEE-41C7-B571-68B68A949017}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{8ACE9C31-7545-432D-BAFB-58FAF97057A9}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="51">
   <si>
     <t>Member테이블</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -61,10 +61,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>isLocked</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>lastlogindate</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -152,10 +148,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>mid</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>auto_increment</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -173,6 +165,78 @@
   </si>
   <si>
     <t>True(1)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dno</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>imageurl</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Image테이블</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Reply테이블</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rno</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mno</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>question테이블</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>regdate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>moddate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mno</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>지금은 사용 X</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>qno</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ino</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>weather</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sunny</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>description</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(500)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -219,7 +283,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="23">
+  <borders count="25">
     <border>
       <left/>
       <right/>
@@ -471,13 +535,33 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -517,15 +601,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -538,6 +613,51 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -547,34 +667,22 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -897,10 +1005,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4893C83F-BEAA-4436-90FA-A1E9A907D79C}">
-  <dimension ref="A2:P24"/>
+  <dimension ref="A2:P38"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="J23" sqref="J23"/>
+      <selection activeCell="M23" sqref="M23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -912,73 +1020,76 @@
     <col min="5" max="5" width="4.58203125" customWidth="1"/>
     <col min="6" max="6" width="8.83203125" customWidth="1"/>
     <col min="7" max="7" width="14.08203125" customWidth="1"/>
+    <col min="10" max="10" width="13.1640625" customWidth="1"/>
+    <col min="11" max="12" width="5.6640625" customWidth="1"/>
+    <col min="14" max="14" width="14.4140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:16" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="P2" s="7"/>
     </row>
     <row r="3" spans="1:16" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B3" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="14"/>
-      <c r="D3" s="14"/>
-      <c r="E3" s="14"/>
-      <c r="F3" s="14"/>
-      <c r="G3" s="15"/>
-      <c r="I3" s="20" t="s">
-        <v>31</v>
-      </c>
-      <c r="J3" s="21"/>
-      <c r="K3" s="21"/>
-      <c r="L3" s="21"/>
-      <c r="M3" s="21"/>
-      <c r="N3" s="22"/>
+      <c r="B3" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="36"/>
+      <c r="D3" s="36"/>
+      <c r="E3" s="36"/>
+      <c r="F3" s="36"/>
+      <c r="G3" s="37"/>
+      <c r="I3" s="32" t="s">
+        <v>29</v>
+      </c>
+      <c r="J3" s="33"/>
+      <c r="K3" s="33"/>
+      <c r="L3" s="33"/>
+      <c r="M3" s="33"/>
+      <c r="N3" s="34"/>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="B4" s="27" t="s">
+      <c r="B4" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="28" t="s">
+      <c r="D4" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="28" t="s">
+      <c r="E4" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="E4" s="28" t="s">
+      <c r="F4" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="G4" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="F4" s="28" t="s">
-        <v>19</v>
-      </c>
-      <c r="G4" s="29" t="s">
+      <c r="I4" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="J4" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="K4" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="L4" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="M4" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="I4" s="27" t="s">
-        <v>14</v>
-      </c>
-      <c r="J4" s="28" t="s">
-        <v>15</v>
-      </c>
-      <c r="K4" s="28" t="s">
-        <v>16</v>
-      </c>
-      <c r="L4" s="28" t="s">
+      <c r="N4" s="20" t="s">
         <v>17</v>
-      </c>
-      <c r="M4" s="28" t="s">
-        <v>19</v>
-      </c>
-      <c r="N4" s="29" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.45">
       <c r="B5" s="12" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="C5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D5" s="1">
         <v>0</v>
@@ -987,14 +1098,14 @@
       <c r="F5" s="1">
         <v>0</v>
       </c>
-      <c r="G5" s="17" t="s">
-        <v>30</v>
+      <c r="G5" s="14" t="s">
+        <v>28</v>
       </c>
       <c r="I5" s="12" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="K5" s="8"/>
       <c r="L5" s="8">
@@ -1003,14 +1114,14 @@
       <c r="M5" s="8">
         <v>0</v>
       </c>
-      <c r="N5" s="17"/>
+      <c r="N5" s="14"/>
     </row>
     <row r="6" spans="1:16" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B6" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D6" s="8"/>
       <c r="E6" s="8"/>
@@ -1018,11 +1129,11 @@
         <v>0</v>
       </c>
       <c r="G6" s="9"/>
-      <c r="I6" s="18" t="s">
-        <v>28</v>
-      </c>
-      <c r="J6" s="19" t="s">
-        <v>12</v>
+      <c r="I6" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="J6" s="16" t="s">
+        <v>11</v>
       </c>
       <c r="K6" s="6"/>
       <c r="L6" s="6"/>
@@ -1030,7 +1141,7 @@
         <v>0</v>
       </c>
       <c r="N6" s="11" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.45">
@@ -1038,7 +1149,7 @@
         <v>2</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D7" s="8"/>
       <c r="E7" s="8"/>
@@ -1047,12 +1158,12 @@
       </c>
       <c r="G7" s="9"/>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:16" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B8" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D8" s="8"/>
       <c r="E8" s="8"/>
@@ -1063,19 +1174,30 @@
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.45">
       <c r="B9" s="2" t="s">
-        <v>4</v>
+        <v>35</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D9" s="8"/>
-      <c r="E9" s="8"/>
-      <c r="F9" s="8"/>
-      <c r="G9" s="9"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="8">
+        <v>0</v>
+      </c>
+      <c r="G9" s="4"/>
+      <c r="H9" s="28"/>
+      <c r="I9" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="J9" s="39"/>
+      <c r="K9" s="39"/>
+      <c r="L9" s="39"/>
+      <c r="M9" s="39"/>
+      <c r="N9" s="40"/>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.45">
       <c r="B10" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>11</v>
@@ -1084,87 +1206,206 @@
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
       <c r="G10" s="9"/>
+      <c r="I10" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="J10" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="K10" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="L10" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="M10" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="N10" s="23" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.45">
       <c r="B11" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>10</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
-      <c r="F11" s="8">
-        <v>0</v>
-      </c>
-      <c r="G11" s="9" t="s">
-        <v>20</v>
+      <c r="F11" s="8"/>
+      <c r="G11" s="9"/>
+      <c r="I11" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="J11" t="s">
+        <v>10</v>
+      </c>
+      <c r="K11" s="1">
+        <v>0</v>
+      </c>
+      <c r="L11" s="1"/>
+      <c r="M11" s="1"/>
+      <c r="N11" s="14" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A12" s="4"/>
-      <c r="B12" s="2" t="s">
+      <c r="B12" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="C12" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C12" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D12" s="8"/>
-      <c r="E12" s="8"/>
-      <c r="F12" s="8"/>
-      <c r="G12" s="9"/>
-    </row>
-    <row r="13" spans="1:16" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B13" s="5" t="s">
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="8">
+        <v>0</v>
+      </c>
+      <c r="G12" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="J12" t="s">
+        <v>10</v>
+      </c>
+      <c r="L12" s="1"/>
+      <c r="M12" s="1"/>
+      <c r="N12" s="9"/>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="B13" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="8">
+        <v>0</v>
+      </c>
+      <c r="G13" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="J13" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="K13" s="8"/>
+      <c r="L13" s="8"/>
+      <c r="M13" s="8"/>
+      <c r="N13" s="9"/>
+    </row>
+    <row r="14" spans="1:16" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B14" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C13" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D13" s="10"/>
-      <c r="E13" s="10"/>
-      <c r="F13" s="10"/>
-      <c r="G13" s="11" t="s">
+      <c r="C14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="9"/>
+      <c r="I14" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="J14" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="K14" s="10"/>
+      <c r="L14" s="10"/>
+      <c r="M14" s="10">
+        <v>0</v>
+      </c>
+      <c r="N14" s="11"/>
+    </row>
+    <row r="15" spans="1:16" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B15" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D15" s="10"/>
+      <c r="E15" s="10"/>
+      <c r="F15" s="10"/>
+      <c r="G15" s="11" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="I17" s="6"/>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="B18" s="29" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="17" spans="2:7" ht="17.5" thickBot="1" x14ac:dyDescent="0.5"/>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B18" s="23" t="s">
+      <c r="C18" s="30"/>
+      <c r="D18" s="30"/>
+      <c r="E18" s="30"/>
+      <c r="F18" s="30"/>
+      <c r="G18" s="31"/>
+      <c r="I18" s="29" t="s">
+        <v>36</v>
+      </c>
+      <c r="J18" s="30"/>
+      <c r="K18" s="30"/>
+      <c r="L18" s="30"/>
+      <c r="M18" s="30"/>
+      <c r="N18" s="31"/>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="B19" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="C19" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="D19" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="E19" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="F19" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="G19" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="I19" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="J19" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="K19" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="L19" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="M19" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="N19" s="23" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="B20" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C18" s="24"/>
-      <c r="D18" s="24"/>
-      <c r="E18" s="24"/>
-      <c r="F18" s="24"/>
-      <c r="G18" s="25"/>
-    </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B19" s="30" t="s">
-        <v>14</v>
-      </c>
-      <c r="C19" s="31" t="s">
-        <v>15</v>
-      </c>
-      <c r="D19" s="31" t="s">
-        <v>16</v>
-      </c>
-      <c r="E19" s="31" t="s">
-        <v>17</v>
-      </c>
-      <c r="F19" s="31" t="s">
-        <v>19</v>
-      </c>
-      <c r="G19" s="32" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B20" s="2" t="s">
-        <v>23</v>
-      </c>
       <c r="C20" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D20" s="1">
         <v>0</v>
@@ -1174,74 +1415,324 @@
         <v>0</v>
       </c>
       <c r="G20" s="9" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.45">
+        <v>28</v>
+      </c>
+      <c r="I20" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="J20" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="K20" s="25">
+        <v>0</v>
+      </c>
+      <c r="L20" s="25"/>
+      <c r="M20" s="25"/>
+      <c r="N20" s="14" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.45">
       <c r="B21" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D21" s="8"/>
-      <c r="E21" s="8"/>
-      <c r="F21" s="8">
-        <v>0</v>
-      </c>
-      <c r="G21" s="9"/>
-    </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.45">
+        <v>43</v>
+      </c>
+      <c r="C21" t="s">
+        <v>10</v>
+      </c>
+      <c r="E21" s="1">
+        <v>0</v>
+      </c>
+      <c r="F21" s="1">
+        <v>0</v>
+      </c>
+      <c r="G21" s="4"/>
+      <c r="I21" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="J21" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="K21" s="3"/>
+      <c r="L21" s="8">
+        <v>0</v>
+      </c>
+      <c r="M21" s="8">
+        <v>0</v>
+      </c>
+      <c r="N21" s="4"/>
+      <c r="P21" s="3"/>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.45">
       <c r="B22" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C22" s="16" t="s">
-        <v>33</v>
+        <v>47</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
-      <c r="F22" s="8">
-        <v>0</v>
-      </c>
-      <c r="G22" s="9"/>
-    </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="F22" s="1">
+        <v>0</v>
+      </c>
+      <c r="G22" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="I22" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="J22" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="K22" s="3"/>
+      <c r="L22" s="3"/>
+      <c r="M22" s="8">
+        <v>0</v>
+      </c>
+      <c r="N22" s="4"/>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.45">
       <c r="B23" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C23" s="16" t="s">
-        <v>10</v>
+        <v>23</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>12</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
-      <c r="F23" s="26">
-        <v>0</v>
-      </c>
-      <c r="G23" s="9" t="s">
+      <c r="F23" s="8">
+        <v>0</v>
+      </c>
+      <c r="G23" s="9"/>
+      <c r="I23" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="J23" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="K23" s="3"/>
+      <c r="L23" s="3"/>
+      <c r="M23" s="8"/>
+      <c r="N23" s="4"/>
+    </row>
+    <row r="24" spans="1:16" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B24" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C24" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="D24" s="8"/>
+      <c r="E24" s="8"/>
+      <c r="F24" s="8">
+        <v>0</v>
+      </c>
+      <c r="G24" s="9"/>
+      <c r="I24" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="J24" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="K24" s="6"/>
+      <c r="L24" s="6"/>
+      <c r="M24" s="10">
+        <v>0</v>
+      </c>
+      <c r="N24" s="26"/>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="B25" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="8">
+        <v>0</v>
+      </c>
+      <c r="G25" s="9" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="24" spans="2:7" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B24" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="C24" s="6" t="s">
+      <c r="J25" s="3"/>
+      <c r="K25" s="3"/>
+      <c r="P25" s="3"/>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="B26" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="8">
+        <v>0</v>
+      </c>
+      <c r="G26" s="9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="B27" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="D27" s="8"/>
+      <c r="E27" s="8"/>
+      <c r="F27" s="17">
+        <v>0</v>
+      </c>
+      <c r="G27" s="9" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B28" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D28" s="10"/>
+      <c r="E28" s="10"/>
+      <c r="F28" s="10">
+        <v>0</v>
+      </c>
+      <c r="G28" s="11" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B31" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A32" s="3"/>
+      <c r="B32" s="29" t="s">
+        <v>37</v>
+      </c>
+      <c r="C32" s="30"/>
+      <c r="D32" s="30"/>
+      <c r="E32" s="30"/>
+      <c r="F32" s="30"/>
+      <c r="G32" s="31"/>
+      <c r="H32" s="3"/>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A33" s="3"/>
+      <c r="B33" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="C33" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="D33" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="E33" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="F33" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="G33" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="H33" s="3"/>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="B34" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C34" t="s">
         <v>10</v>
       </c>
-      <c r="D24" s="10"/>
-      <c r="E24" s="10"/>
-      <c r="F24" s="10">
-        <v>0</v>
-      </c>
-      <c r="G24" s="11" t="s">
-        <v>34</v>
+      <c r="E34" s="1">
+        <v>0</v>
+      </c>
+      <c r="F34" s="1">
+        <v>0</v>
+      </c>
+      <c r="G34" s="9" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="B35" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D35" s="8"/>
+      <c r="E35" s="8"/>
+      <c r="F35" s="8">
+        <v>0</v>
+      </c>
+      <c r="G35" s="9"/>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="B36" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D36" s="8"/>
+      <c r="E36" s="8">
+        <v>0</v>
+      </c>
+      <c r="F36" s="8">
+        <v>0</v>
+      </c>
+      <c r="G36" s="9"/>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="B37" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D37" s="3"/>
+      <c r="E37" s="3"/>
+      <c r="F37" s="8">
+        <v>0</v>
+      </c>
+      <c r="G37" s="9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B38" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="C38" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D38" s="6"/>
+      <c r="E38" s="6"/>
+      <c r="F38" s="10">
+        <v>0</v>
+      </c>
+      <c r="G38" s="11" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="6">
     <mergeCell ref="B18:G18"/>
     <mergeCell ref="I3:N3"/>
     <mergeCell ref="B3:G3"/>
+    <mergeCell ref="I18:N18"/>
+    <mergeCell ref="B32:G32"/>
+    <mergeCell ref="I9:N9"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/테이블정리서.xlsx
+++ b/테이블정리서.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\02070811\mini02\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD0E211F-4EEE-41C7-B571-68B68A949017}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D40915D9-618A-4A51-B5C3-8546641E5D0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{8ACE9C31-7545-432D-BAFB-58FAF97057A9}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="51">
   <si>
     <t>Member테이블</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1007,8 +1007,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4893C83F-BEAA-4436-90FA-A1E9A907D79C}">
   <dimension ref="A2:P38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="M23" sqref="M23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -1174,17 +1174,15 @@
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.45">
       <c r="B9" s="2" t="s">
-        <v>35</v>
+        <v>4</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="8">
-        <v>0</v>
-      </c>
-      <c r="G9" s="4"/>
+        <v>11</v>
+      </c>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="9"/>
       <c r="H9" s="28"/>
       <c r="I9" s="38" t="s">
         <v>40</v>
@@ -1197,10 +1195,10 @@
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.45">
       <c r="B10" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
@@ -1226,16 +1224,20 @@
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="B11" s="2" t="s">
-        <v>5</v>
+      <c r="B11" s="27" t="s">
+        <v>41</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D11" s="8"/>
-      <c r="E11" s="8"/>
-      <c r="F11" s="8"/>
-      <c r="G11" s="9"/>
+        <v>8</v>
+      </c>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="8">
+        <v>0</v>
+      </c>
+      <c r="G11" s="9" t="s">
+        <v>20</v>
+      </c>
       <c r="I11" s="2" t="s">
         <v>45</v>
       </c>
@@ -1254,7 +1256,7 @@
     <row r="12" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A12" s="4"/>
       <c r="B12" s="27" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>8</v>
@@ -1278,20 +1280,16 @@
       <c r="N12" s="9"/>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="B13" s="27" t="s">
-        <v>42</v>
+      <c r="B13" s="2" t="s">
+        <v>7</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="8">
-        <v>0</v>
-      </c>
-      <c r="G13" s="9" t="s">
-        <v>20</v>
-      </c>
+      <c r="D13" s="8"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="9"/>
       <c r="I13" s="2" t="s">
         <v>4</v>
       </c>
@@ -1304,16 +1302,18 @@
       <c r="N13" s="9"/>
     </row>
     <row r="14" spans="1:16" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B14" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C14" s="3" t="s">
+      <c r="B14" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C14" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="D14" s="8"/>
-      <c r="E14" s="8"/>
-      <c r="F14" s="8"/>
-      <c r="G14" s="9"/>
+      <c r="D14" s="10"/>
+      <c r="E14" s="10"/>
+      <c r="F14" s="10"/>
+      <c r="G14" s="11" t="s">
+        <v>20</v>
+      </c>
       <c r="I14" s="5" t="s">
         <v>24</v>
       </c>
@@ -1326,20 +1326,6 @@
         <v>0</v>
       </c>
       <c r="N14" s="11"/>
-    </row>
-    <row r="15" spans="1:16" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B15" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C15" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D15" s="10"/>
-      <c r="E15" s="10"/>
-      <c r="F15" s="10"/>
-      <c r="G15" s="11" t="s">
-        <v>20</v>
-      </c>
     </row>
     <row r="17" spans="1:16" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I17" s="6"/>
